--- a/biology/Zoologie/Christian_Jouanin/Christian_Jouanin.xlsx
+++ b/biology/Zoologie/Christian_Jouanin/Christian_Jouanin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christian Jouanin est un ornithologue français du Muséum national d'histoire naturelle, né le 10 juillet 1925 et mort le 8 novembre 2014[1],[2], spécialiste des pétrels et ancien vice-président de 1970 à 1975 de l'Union internationale pour la conservation de la nature.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christian Jouanin est un ornithologue français du Muséum national d'histoire naturelle, né le 10 juillet 1925 et mort le 8 novembre 2014 spécialiste des pétrels et ancien vice-président de 1970 à 1975 de l'Union internationale pour la conservation de la nature.
 Auteur de nombreuses contributions à l'ornithologie, il est resté jusque dans les années 2010 actif à la Société nationale de protection de la nature en tant que directeur de sa publication Le Courrier de la Nature.
 Il est enterré au cimetière du Père-Lachaise (68e division).
 </t>
@@ -513,7 +525,9 @@
           <t>Espèce décrite</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pétrel de Jouanin (Bulweria fallax Jouanin, 1955)</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Ouvrage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jouanin C. (1951) Catalogue systématique des types de Trochilidés du Muséum d'histoire naturelle de Paris.</t>
         </is>
